--- a/Numbering.xlsx
+++ b/Numbering.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbasnkunda/Desktop/GW_Stations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbasnkunda/Desktop/StationNumbers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A99BC7BE-57BE-FF47-96B2-5E41D4148A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{ED3DC8DE-CC40-3F40-AE95-3335934CCED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15440" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Victoria1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,11 @@
     <sheet name="Kidepo8" sheetId="11" r:id="rId8"/>
     <sheet name="Criteria" sheetId="12" r:id="rId9"/>
     <sheet name="List" sheetId="13" r:id="rId10"/>
+    <sheet name="Isotope Station" sheetId="14" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">List!$A$1:$AF$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="547" uniqueCount="114">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="793" uniqueCount="165">
   <si>
     <t>Latitude</t>
   </si>
@@ -502,12 +506,189 @@
   <si>
     <t>Kyoga Nile</t>
   </si>
+  <si>
+    <t>Type of Wells</t>
+  </si>
+  <si>
+    <t>Purpose of Monitoring (Impact of abstraction/Seasonal changes)</t>
+  </si>
+  <si>
+    <t>1 Telemetry IGAD, 1 Manual (With NWSC Rainguage)</t>
+  </si>
+  <si>
+    <t>Impacts of abstractions</t>
+  </si>
+  <si>
+    <t>seasonal changes related to GW-SW interaction</t>
+  </si>
+  <si>
+    <t>Telemetry IGAD with rainguage</t>
+  </si>
+  <si>
+    <t>seasonal changes</t>
+  </si>
+  <si>
+    <t>1 Telemetric IGAD, 2 divers, 1Manual dipper(silted)</t>
+  </si>
+  <si>
+    <t>Abstraction</t>
+  </si>
+  <si>
+    <t>Automatic Recorder With Rainguage,</t>
+  </si>
+  <si>
+    <t>Abstraction/Seasonal Changes</t>
+  </si>
+  <si>
+    <t>Telemetry IGAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manual With Rainguage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telemetry IGAD </t>
+  </si>
+  <si>
+    <t>Telemetry IGAD With Rainguage</t>
+  </si>
+  <si>
+    <t>All manual With Rainguage</t>
+  </si>
+  <si>
+    <t>Seasonal changes related to GW-SW interaction</t>
+  </si>
+  <si>
+    <t>Telemetry GWLR-World Bank</t>
+  </si>
+  <si>
+    <t>Seasonal changes</t>
+  </si>
+  <si>
+    <t>Manual With Rainguage</t>
+  </si>
+  <si>
+    <t>Automatic Recorder With Rainguage</t>
+  </si>
+  <si>
+    <t>Telemetry IGAD With Rainguage, has provision for manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telemetry IGAD With Rainguage </t>
+  </si>
+  <si>
+    <t>Abstraction and seasonal changes</t>
+  </si>
+  <si>
+    <t>Seasonal Changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telemetry IGAD With Rainguage &amp; Automatic rainguage WB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstraction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telemetry GWLR-World Bank </t>
+  </si>
+  <si>
+    <t>3 wells -1 Telemetric IGAD, 2 Manual dippers</t>
+  </si>
+  <si>
+    <t>Rukungiri Old Monitoring Well</t>
+  </si>
+  <si>
+    <t>1 well (manual)</t>
+  </si>
+  <si>
+    <t>Manual dipper, was Telemetric IGAD</t>
+  </si>
+  <si>
+    <t>Telemetry GWLR-World Bank  with Met rainfall</t>
+  </si>
+  <si>
+    <t>Aswa Shear Zone (Gulu-Nimule Rd) Amuru_Atiak</t>
+  </si>
+  <si>
+    <t>Telemetry IGAD /dipper with rainguage</t>
+  </si>
+  <si>
+    <t>Manual Dipper</t>
+  </si>
+  <si>
+    <t>Isotope analysis (GNIP - Global Network on Isotope Precipitation)</t>
+  </si>
+  <si>
+    <t>IS_</t>
+  </si>
+  <si>
+    <t>Isotope Rainfall station</t>
+  </si>
+  <si>
+    <t>Ssese Farm Institute (Rakai)</t>
+  </si>
+  <si>
+    <t>Abandoned</t>
+  </si>
+  <si>
+    <t>Kitovu S.S (St. Henry's)</t>
+  </si>
+  <si>
+    <t>Isotope rainfall station</t>
+  </si>
+  <si>
+    <t>Telemetry with Diver</t>
+  </si>
+  <si>
+    <r>
+      <t>To be installed Automatic recorder,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>has provision for manual but no dipper</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3 wells- 1 automatic green, 1 telemetric IGAD,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> manual dipper</t>
+    </r>
+  </si>
+  <si>
+    <t>WM_Zone</t>
+  </si>
+  <si>
+    <t>UNWMZ</t>
+  </si>
+  <si>
+    <t>AWMZ</t>
+  </si>
+  <si>
+    <t>KWMZ</t>
+  </si>
+  <si>
+    <t>VWMZ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -668,8 +849,23 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,6 +1060,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,7 +1291,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="17" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1140,9 +1342,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1151,6 +1368,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2266,66 +2496,74 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B41EBA2-FF4B-FE43-8FB5-5D310F774F2A}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:AF66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="63.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="66.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:32" s="24" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="20" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L1" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -2335,35 +2573,43 @@
       <c r="C2" s="8">
         <v>32.604959999999998</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
-        <v>32</v>
+      <c r="D2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="8">
+        <v>8</v>
       </c>
       <c r="F2" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G2" s="8">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8">
-        <v>4</v>
-      </c>
-      <c r="I2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>73</v>
       </c>
+      <c r="I2" s="8" t="str">
+        <f>CONCATENATE(E2,F2,G2,H2)</f>
+        <v>814001</v>
+      </c>
       <c r="J2" s="8" t="str">
-        <f>CONCATENATE(F2,G2,H2,I2)</f>
-        <v>814001</v>
-      </c>
-      <c r="K2" s="8" t="str">
-        <f>CONCATENATE(E2,J2)</f>
+        <f>CONCATENATE(D2,I2)</f>
         <v>GW_814001</v>
       </c>
+      <c r="K2" t="s">
+        <v>107</v>
+      </c>
       <c r="L2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="M2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -2374,36 +2620,39 @@
         <v>34.090000000000003</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>32</v>
+        <v>32</v>
+      </c>
+      <c r="E3" s="8">
+        <v>8</v>
       </c>
       <c r="F3" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8">
-        <v>4</v>
-      </c>
-      <c r="I3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>74</v>
       </c>
+      <c r="I3" s="8" t="str">
+        <f>CONCATENATE(E3,F3,G3,H3)</f>
+        <v>814002</v>
+      </c>
       <c r="J3" s="8" t="str">
-        <f t="shared" ref="J3:J21" si="0">CONCATENATE(F3,G3,H3,I3)</f>
-        <v>814002</v>
-      </c>
-      <c r="K3" s="8" t="str">
-        <f t="shared" ref="K3:K21" si="1">CONCATENATE(E3,J3)</f>
+        <f>CONCATENATE(D3,I3)</f>
         <v>GW_814002</v>
       </c>
+      <c r="K3" t="s">
+        <v>107</v>
+      </c>
       <c r="L3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="M3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -2413,35 +2662,61 @@
       <c r="C4" s="8">
         <v>33.987307999999999</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>32</v>
+      <c r="D4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="8">
+        <v>8</v>
       </c>
       <c r="F4" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8">
-        <v>4</v>
-      </c>
-      <c r="I4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>75</v>
       </c>
+      <c r="I4" s="8" t="str">
+        <f>CONCATENATE(E4,F4,G4,H4)</f>
+        <v>814003</v>
+      </c>
       <c r="J4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>814003</v>
-      </c>
-      <c r="K4" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(D4,I4)</f>
         <v>GW_814003</v>
       </c>
+      <c r="K4" t="s">
+        <v>107</v>
+      </c>
       <c r="L4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="M4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N4" t="s">
+        <v>118</v>
+      </c>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
@@ -2451,35 +2726,43 @@
       <c r="C5" s="8">
         <v>32.472079999999998</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>32</v>
+      <c r="D5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="8">
+        <v>8</v>
       </c>
       <c r="F5" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8">
-        <v>4</v>
-      </c>
-      <c r="I5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>76</v>
       </c>
+      <c r="I5" s="8" t="str">
+        <f>CONCATENATE(E5,F5,G5,H5)</f>
+        <v>814004</v>
+      </c>
       <c r="J5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>814004</v>
-      </c>
-      <c r="K5" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(D5,I5)</f>
         <v>GW_814004</v>
       </c>
+      <c r="K5" t="s">
+        <v>107</v>
+      </c>
       <c r="L5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="M5" t="s">
+        <v>119</v>
+      </c>
+      <c r="N5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -2489,35 +2772,43 @@
       <c r="C6" s="8">
         <v>30.812000000000001</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
-        <v>32</v>
+      <c r="D6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="8">
+        <v>8</v>
       </c>
       <c r="F6" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8">
-        <v>4</v>
-      </c>
-      <c r="I6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="I6" s="8" t="str">
+        <f>CONCATENATE(E6,F6,G6,H6)</f>
+        <v>814005</v>
+      </c>
       <c r="J6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>814005</v>
-      </c>
-      <c r="K6" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(D6,I6)</f>
         <v>GW_814005</v>
       </c>
+      <c r="K6" t="s">
+        <v>107</v>
+      </c>
       <c r="L6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="M6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
@@ -2527,35 +2818,43 @@
       <c r="C7" s="8">
         <v>33.206969999999998</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>32</v>
+      <c r="D7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="8">
+        <v>8</v>
       </c>
       <c r="F7" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>4</v>
-      </c>
-      <c r="I7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>78</v>
       </c>
+      <c r="I7" s="8" t="str">
+        <f>CONCATENATE(E7,F7,G7,H7)</f>
+        <v>814006</v>
+      </c>
       <c r="J7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>814006</v>
-      </c>
-      <c r="K7" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(D7,I7)</f>
         <v>GW_814006</v>
       </c>
+      <c r="K7" t="s">
+        <v>107</v>
+      </c>
       <c r="L7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="M7" t="s">
+        <v>158</v>
+      </c>
+      <c r="N7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
@@ -2565,35 +2864,61 @@
       <c r="C8" s="8">
         <v>30.215630000000001</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
-        <v>32</v>
+      <c r="D8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="8">
+        <v>8</v>
       </c>
       <c r="F8" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G8" s="8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8">
-        <v>4</v>
-      </c>
-      <c r="I8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>79</v>
       </c>
+      <c r="I8" s="8" t="str">
+        <f>CONCATENATE(E8,F8,G8,H8)</f>
+        <v>814007</v>
+      </c>
       <c r="J8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>814007</v>
-      </c>
-      <c r="K8" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(D8,I8)</f>
         <v>GW_814007</v>
       </c>
+      <c r="K8" t="s">
+        <v>107</v>
+      </c>
       <c r="L8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="M8" t="s">
+        <v>131</v>
+      </c>
+      <c r="N8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
@@ -2604,36 +2929,39 @@
         <v>31.762550000000001</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>32</v>
+        <v>32</v>
+      </c>
+      <c r="E9" s="8">
+        <v>8</v>
       </c>
       <c r="F9" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8">
-        <v>4</v>
-      </c>
-      <c r="I9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>80</v>
       </c>
+      <c r="I9" s="8" t="str">
+        <f>CONCATENATE(E9,F9,G9,H9)</f>
+        <v>814008</v>
+      </c>
       <c r="J9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>814008</v>
-      </c>
-      <c r="K9" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(D9,I9)</f>
         <v>GW_814008</v>
       </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
       <c r="L9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="M9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
@@ -2643,35 +2971,43 @@
       <c r="C10" s="8">
         <v>32.801805999999999</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>32</v>
+      <c r="D10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="8">
+        <v>8</v>
       </c>
       <c r="F10" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8">
-        <v>4</v>
-      </c>
-      <c r="I10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="I10" s="8" t="str">
+        <f>CONCATENATE(E10,F10,G10,H10)</f>
+        <v>814009</v>
+      </c>
       <c r="J10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>814009</v>
-      </c>
-      <c r="K10" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(D10,I10)</f>
         <v>GW_814009</v>
       </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
       <c r="L10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="M10" t="s">
+        <v>158</v>
+      </c>
+      <c r="N10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
@@ -2681,35 +3017,61 @@
       <c r="C11" s="8">
         <v>33.150458</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
-        <v>32</v>
+      <c r="D11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="8">
+        <v>8</v>
       </c>
       <c r="F11" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8">
-        <v>4</v>
-      </c>
-      <c r="I11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>82</v>
       </c>
+      <c r="I11" s="8" t="str">
+        <f>CONCATENATE(E11,F11,G11,H11)</f>
+        <v>814010</v>
+      </c>
       <c r="J11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>814010</v>
-      </c>
-      <c r="K11" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(D11,I11)</f>
         <v>GW_814010</v>
       </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
       <c r="L11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="M11" t="s">
+        <v>158</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+    </row>
+    <row r="12" spans="1:32" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
@@ -2720,36 +3082,58 @@
         <v>31.216799999999999</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>32</v>
+        <v>32</v>
+      </c>
+      <c r="E12" s="8">
+        <v>8</v>
       </c>
       <c r="F12" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8">
-        <v>4</v>
-      </c>
-      <c r="I12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>83</v>
       </c>
+      <c r="I12" s="8" t="str">
+        <f>CONCATENATE(E12,F12,G12,H12)</f>
+        <v>814011</v>
+      </c>
       <c r="J12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>814011</v>
-      </c>
-      <c r="K12" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(D12,I12)</f>
         <v>GW_814011</v>
       </c>
+      <c r="K12" t="s">
+        <v>107</v>
+      </c>
       <c r="L12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="M12" t="s">
+        <v>154</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
@@ -2760,74 +3144,103 @@
         <v>30.656759999999998</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>32</v>
+        <v>32</v>
+      </c>
+      <c r="E13" s="8">
+        <v>8</v>
       </c>
       <c r="F13" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G13" s="8">
+        <v>4</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="8" t="str">
+        <f>CONCATENATE(E13,F13,G13,H13)</f>
+        <v>814012</v>
+      </c>
+      <c r="J13" s="8" t="str">
+        <f>CONCATENATE(D13,I13)</f>
+        <v>GW_814012</v>
+      </c>
+      <c r="K13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" t="s">
+        <v>164</v>
+      </c>
+      <c r="M13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="31">
+        <v>0.5484</v>
+      </c>
+      <c r="C14" s="31">
+        <v>31.425000000000001</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="31">
+        <v>8</v>
+      </c>
+      <c r="F14" s="31">
         <v>1</v>
       </c>
-      <c r="H13" s="8">
-        <v>4</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>814012</v>
-      </c>
-      <c r="K13" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>GW_814012</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="G14" s="31">
+        <v>4</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="31" t="str">
+        <f>CONCATENATE(E14,F14,G14,H14)</f>
+        <v>814013</v>
+      </c>
+      <c r="J14" s="31" t="str">
+        <f>CONCATENATE(D14,I14)</f>
+        <v>GW_814013</v>
+      </c>
+      <c r="K14" s="33" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="8">
-        <v>0.5484</v>
-      </c>
-      <c r="C14" s="8">
-        <v>31.425000000000001</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="8">
-        <v>8</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8">
-        <v>4</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>814013</v>
-      </c>
-      <c r="K14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>GW_814013</v>
-      </c>
-      <c r="L14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="M14" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="33"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
@@ -2837,35 +3250,43 @@
       <c r="C15" s="8">
         <v>32.909999999999997</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
-        <v>32</v>
+      <c r="D15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="8">
+        <v>8</v>
       </c>
       <c r="F15" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G15" s="8">
-        <v>1</v>
-      </c>
-      <c r="H15" s="8">
-        <v>4</v>
-      </c>
-      <c r="I15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>86</v>
       </c>
+      <c r="I15" s="8" t="str">
+        <f>CONCATENATE(E15,F15,G15,H15)</f>
+        <v>814014</v>
+      </c>
       <c r="J15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>814014</v>
-      </c>
-      <c r="K15" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(D15,I15)</f>
         <v>GW_814014</v>
       </c>
+      <c r="K15" t="s">
+        <v>107</v>
+      </c>
       <c r="L15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="M15" t="s">
+        <v>123</v>
+      </c>
+      <c r="N15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
@@ -2875,35 +3296,43 @@
       <c r="C16" s="8">
         <v>32.029000000000003</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
-        <v>32</v>
+      <c r="D16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="8">
+        <v>8</v>
       </c>
       <c r="F16" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="8">
-        <v>4</v>
-      </c>
-      <c r="I16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>87</v>
       </c>
+      <c r="I16" s="8" t="str">
+        <f>CONCATENATE(E16,F16,G16,H16)</f>
+        <v>814015</v>
+      </c>
       <c r="J16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>814015</v>
-      </c>
-      <c r="K16" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(D16,I16)</f>
         <v>GW_814015</v>
       </c>
+      <c r="K16" t="s">
+        <v>107</v>
+      </c>
       <c r="L16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="M16" t="s">
+        <v>125</v>
+      </c>
+      <c r="N16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>19</v>
       </c>
@@ -2913,35 +3342,43 @@
       <c r="C17" s="8">
         <v>30.192</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
-        <v>32</v>
+      <c r="D17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="8">
+        <v>8</v>
       </c>
       <c r="F17" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G17" s="8">
-        <v>1</v>
-      </c>
-      <c r="H17" s="8">
-        <v>4</v>
-      </c>
-      <c r="I17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>88</v>
       </c>
+      <c r="I17" s="8" t="str">
+        <f>CONCATENATE(E17,F17,G17,H17)</f>
+        <v>814016</v>
+      </c>
       <c r="J17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>814016</v>
-      </c>
-      <c r="K17" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(D17,I17)</f>
         <v>GW_814016</v>
       </c>
+      <c r="K17" t="s">
+        <v>107</v>
+      </c>
       <c r="L17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="M17" t="s">
+        <v>126</v>
+      </c>
+      <c r="N17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
@@ -2951,35 +3388,43 @@
       <c r="C18" s="8">
         <v>31.852409000000002</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
-        <v>32</v>
+      <c r="D18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="8">
+        <v>8</v>
       </c>
       <c r="F18" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G18" s="8">
-        <v>1</v>
-      </c>
-      <c r="H18" s="8">
-        <v>4</v>
-      </c>
-      <c r="I18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>89</v>
       </c>
+      <c r="I18" s="8" t="str">
+        <f>CONCATENATE(E18,F18,G18,H18)</f>
+        <v>814017</v>
+      </c>
       <c r="J18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>814017</v>
-      </c>
-      <c r="K18" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(D18,I18)</f>
         <v>GW_814017</v>
       </c>
+      <c r="K18" t="s">
+        <v>107</v>
+      </c>
       <c r="L18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="M18" t="s">
+        <v>127</v>
+      </c>
+      <c r="N18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>21</v>
       </c>
@@ -2989,35 +3434,43 @@
       <c r="C19" s="8">
         <v>30.965</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
-        <v>32</v>
+      <c r="D19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="8">
+        <v>8</v>
       </c>
       <c r="F19" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G19" s="8">
-        <v>1</v>
-      </c>
-      <c r="H19" s="8">
-        <v>4</v>
-      </c>
-      <c r="I19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>90</v>
       </c>
+      <c r="I19" s="8" t="str">
+        <f>CONCATENATE(E19,F19,G19,H19)</f>
+        <v>814018</v>
+      </c>
       <c r="J19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>814018</v>
-      </c>
-      <c r="K19" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(D19,I19)</f>
         <v>GW_814018</v>
       </c>
+      <c r="K19" t="s">
+        <v>107</v>
+      </c>
       <c r="L19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="M19" t="s">
+        <v>128</v>
+      </c>
+      <c r="N19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
@@ -3027,37 +3480,45 @@
       <c r="C20" s="8">
         <v>31.295999999999999</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
-        <v>32</v>
+      <c r="D20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="8">
+        <v>8</v>
       </c>
       <c r="F20" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G20" s="8">
-        <v>1</v>
-      </c>
-      <c r="H20" s="8">
-        <v>4</v>
-      </c>
-      <c r="I20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>91</v>
       </c>
+      <c r="I20" s="8" t="str">
+        <f>CONCATENATE(E20,F20,G20,H20)</f>
+        <v>814019</v>
+      </c>
       <c r="J20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>814019</v>
-      </c>
-      <c r="K20" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(D20,I20)</f>
         <v>GW_814019</v>
       </c>
+      <c r="K20" t="s">
+        <v>107</v>
+      </c>
       <c r="L20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="M20" t="s">
+        <v>119</v>
+      </c>
+      <c r="N20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="B21" s="8">
         <v>-0.32100000000000001</v>
@@ -3065,35 +3526,43 @@
       <c r="C21" s="8">
         <v>32.295999999999999</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
-        <v>32</v>
+      <c r="D21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="8">
+        <v>8</v>
       </c>
       <c r="F21" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G21" s="8">
-        <v>1</v>
-      </c>
-      <c r="H21" s="8">
-        <v>4</v>
-      </c>
-      <c r="I21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>92</v>
       </c>
+      <c r="I21" s="8" t="str">
+        <f>CONCATENATE(E21,F21,G21,H21)</f>
+        <v>814020</v>
+      </c>
       <c r="J21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>814020</v>
-      </c>
-      <c r="K21" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(D21,I21)</f>
         <v>GW_814020</v>
       </c>
+      <c r="K21" t="s">
+        <v>107</v>
+      </c>
       <c r="L21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="M21" t="s">
+        <v>144</v>
+      </c>
+      <c r="N21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>33</v>
       </c>
@@ -3103,35 +3572,43 @@
       <c r="C22" s="8">
         <v>33.273000000000003</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
-        <v>32</v>
+      <c r="D22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="8">
+        <v>8</v>
       </c>
       <c r="F22" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G22" s="8">
-        <v>2</v>
-      </c>
-      <c r="H22" s="8">
-        <v>4</v>
-      </c>
-      <c r="I22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>73</v>
       </c>
+      <c r="I22" s="8" t="str">
+        <f>CONCATENATE(E22,F22,G22,H22)</f>
+        <v>824001</v>
+      </c>
       <c r="J22" s="8" t="str">
-        <f>CONCATENATE(F22,G22,H22,I22)</f>
-        <v>824001</v>
-      </c>
-      <c r="K22" s="8" t="str">
-        <f>CONCATENATE(E22,J22)</f>
+        <f>CONCATENATE(D22,I22)</f>
         <v>GW_824001</v>
       </c>
+      <c r="K22" t="s">
+        <v>108</v>
+      </c>
       <c r="L22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="M22" t="s">
+        <v>129</v>
+      </c>
+      <c r="N22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>34</v>
       </c>
@@ -3141,35 +3618,43 @@
       <c r="C23" s="8">
         <v>33.494289999999999</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
-        <v>32</v>
+      <c r="D23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="8">
+        <v>8</v>
       </c>
       <c r="F23" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G23" s="8">
-        <v>2</v>
-      </c>
-      <c r="H23" s="8">
-        <v>4</v>
-      </c>
-      <c r="I23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>74</v>
       </c>
+      <c r="I23" s="8" t="str">
+        <f>CONCATENATE(E23,F23,G23,H23)</f>
+        <v>824002</v>
+      </c>
       <c r="J23" s="8" t="str">
-        <f t="shared" ref="J23:J36" si="2">CONCATENATE(F23,G23,H23,I23)</f>
-        <v>824002</v>
-      </c>
-      <c r="K23" s="8" t="str">
-        <f t="shared" ref="K23:K36" si="3">CONCATENATE(E23,J23)</f>
+        <f>CONCATENATE(D23,I23)</f>
         <v>GW_824002</v>
       </c>
+      <c r="K23" t="s">
+        <v>108</v>
+      </c>
       <c r="L23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="M23" t="s">
+        <v>131</v>
+      </c>
+      <c r="N23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
@@ -3179,35 +3664,61 @@
       <c r="C24" s="8">
         <v>34.004660000000001</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
-        <v>32</v>
+      <c r="D24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="8">
+        <v>8</v>
       </c>
       <c r="F24" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G24" s="8">
-        <v>2</v>
-      </c>
-      <c r="H24" s="8">
-        <v>4</v>
-      </c>
-      <c r="I24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>75</v>
       </c>
+      <c r="I24" s="8" t="str">
+        <f>CONCATENATE(E24,F24,G24,H24)</f>
+        <v>824003</v>
+      </c>
       <c r="J24" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>824003</v>
-      </c>
-      <c r="K24" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(D24,I24)</f>
         <v>GW_824003</v>
       </c>
+      <c r="K24" t="s">
+        <v>108</v>
+      </c>
       <c r="L24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="M24" t="s">
+        <v>131</v>
+      </c>
+      <c r="N24" t="s">
+        <v>132</v>
+      </c>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>36</v>
       </c>
@@ -3217,35 +3728,40 @@
       <c r="C25" s="8">
         <v>33.202599999999997</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8" t="s">
-        <v>32</v>
+      <c r="D25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="8">
+        <v>8</v>
       </c>
       <c r="F25" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G25" s="8">
-        <v>2</v>
-      </c>
-      <c r="H25" s="8">
-        <v>4</v>
-      </c>
-      <c r="I25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>76</v>
       </c>
+      <c r="I25" s="8" t="str">
+        <f>CONCATENATE(E25,F25,G25,H25)</f>
+        <v>824004</v>
+      </c>
       <c r="J25" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>824004</v>
-      </c>
-      <c r="K25" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(D25,I25)</f>
         <v>GW_824004</v>
       </c>
+      <c r="K25" t="s">
+        <v>108</v>
+      </c>
       <c r="L25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="M25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>37</v>
       </c>
@@ -3255,35 +3771,43 @@
       <c r="C26" s="8">
         <v>33.163029999999999</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
-        <v>32</v>
+      <c r="D26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="8">
+        <v>8</v>
       </c>
       <c r="F26" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G26" s="8">
-        <v>2</v>
-      </c>
-      <c r="H26" s="8">
-        <v>4</v>
-      </c>
-      <c r="I26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="I26" s="8" t="str">
+        <f>CONCATENATE(E26,F26,G26,H26)</f>
+        <v>824005</v>
+      </c>
       <c r="J26" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>824005</v>
-      </c>
-      <c r="K26" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(D26,I26)</f>
         <v>GW_824005</v>
       </c>
+      <c r="K26" t="s">
+        <v>108</v>
+      </c>
       <c r="L26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="M26" t="s">
+        <v>131</v>
+      </c>
+      <c r="N26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>38</v>
       </c>
@@ -3294,36 +3818,39 @@
         <v>33.08</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>32</v>
+        <v>32</v>
+      </c>
+      <c r="E27" s="8">
+        <v>8</v>
       </c>
       <c r="F27" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G27" s="8">
-        <v>2</v>
-      </c>
-      <c r="H27" s="8">
-        <v>4</v>
-      </c>
-      <c r="I27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>78</v>
       </c>
+      <c r="I27" s="8" t="str">
+        <f>CONCATENATE(E27,F27,G27,H27)</f>
+        <v>824006</v>
+      </c>
       <c r="J27" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>824006</v>
-      </c>
-      <c r="K27" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(D27,I27)</f>
         <v>GW_824006</v>
       </c>
+      <c r="K27" t="s">
+        <v>108</v>
+      </c>
       <c r="L27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="M27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>39</v>
       </c>
@@ -3333,35 +3860,43 @@
       <c r="C28" s="8">
         <v>34.484000000000002</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8" t="s">
-        <v>32</v>
+      <c r="D28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="8">
+        <v>8</v>
       </c>
       <c r="F28" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G28" s="8">
-        <v>2</v>
-      </c>
-      <c r="H28" s="8">
-        <v>4</v>
-      </c>
-      <c r="I28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>79</v>
       </c>
+      <c r="I28" s="8" t="str">
+        <f>CONCATENATE(E28,F28,G28,H28)</f>
+        <v>824007</v>
+      </c>
       <c r="J28" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>824007</v>
-      </c>
-      <c r="K28" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(D28,I28)</f>
         <v>GW_824007</v>
       </c>
+      <c r="K28" t="s">
+        <v>108</v>
+      </c>
       <c r="L28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="M28" t="s">
+        <v>128</v>
+      </c>
+      <c r="N28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>40</v>
       </c>
@@ -3371,35 +3906,43 @@
       <c r="C29" s="8">
         <v>34.336039999999997</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8" t="s">
-        <v>32</v>
+      <c r="D29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="8">
+        <v>8</v>
       </c>
       <c r="F29" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G29" s="8">
-        <v>2</v>
-      </c>
-      <c r="H29" s="8">
-        <v>4</v>
-      </c>
-      <c r="I29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>80</v>
       </c>
+      <c r="I29" s="8" t="str">
+        <f>CONCATENATE(E29,F29,G29,H29)</f>
+        <v>824008</v>
+      </c>
       <c r="J29" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>824008</v>
-      </c>
-      <c r="K29" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(D29,I29)</f>
         <v>GW_824008</v>
       </c>
+      <c r="K29" t="s">
+        <v>108</v>
+      </c>
       <c r="L29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="M29" t="s">
+        <v>131</v>
+      </c>
+      <c r="N29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>41</v>
       </c>
@@ -3409,35 +3952,43 @@
       <c r="C30" s="8">
         <v>33.963140000000003</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8" t="s">
-        <v>32</v>
+      <c r="D30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="8">
+        <v>8</v>
       </c>
       <c r="F30" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G30" s="8">
-        <v>2</v>
-      </c>
-      <c r="H30" s="8">
-        <v>4</v>
-      </c>
-      <c r="I30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="I30" s="8" t="str">
+        <f>CONCATENATE(E30,F30,G30,H30)</f>
+        <v>824009</v>
+      </c>
       <c r="J30" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>824009</v>
-      </c>
-      <c r="K30" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(D30,I30)</f>
         <v>GW_824009</v>
       </c>
+      <c r="K30" t="s">
+        <v>108</v>
+      </c>
       <c r="L30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="M30" t="s">
+        <v>131</v>
+      </c>
+      <c r="N30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>42</v>
       </c>
@@ -3447,35 +3998,43 @@
       <c r="C31" s="8">
         <v>34.115310000000001</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8" t="s">
-        <v>32</v>
+      <c r="D31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="8">
+        <v>8</v>
       </c>
       <c r="F31" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G31" s="8">
-        <v>2</v>
-      </c>
-      <c r="H31" s="8">
-        <v>4</v>
-      </c>
-      <c r="I31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="9" t="s">
         <v>82</v>
       </c>
+      <c r="I31" s="8" t="str">
+        <f>CONCATENATE(E31,F31,G31,H31)</f>
+        <v>824010</v>
+      </c>
       <c r="J31" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>824010</v>
-      </c>
-      <c r="K31" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(D31,I31)</f>
         <v>GW_824010</v>
       </c>
+      <c r="K31" t="s">
+        <v>108</v>
+      </c>
       <c r="L31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="M31" t="s">
+        <v>131</v>
+      </c>
+      <c r="N31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>43</v>
       </c>
@@ -3485,35 +4044,43 @@
       <c r="C32" s="8">
         <v>34.665999999999997</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8" t="s">
-        <v>32</v>
+      <c r="D32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="8">
+        <v>8</v>
       </c>
       <c r="F32" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G32" s="8">
-        <v>2</v>
-      </c>
-      <c r="H32" s="8">
-        <v>4</v>
-      </c>
-      <c r="I32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>83</v>
       </c>
+      <c r="I32" s="8" t="str">
+        <f>CONCATENATE(E32,F32,G32,H32)</f>
+        <v>824011</v>
+      </c>
       <c r="J32" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>824011</v>
-      </c>
-      <c r="K32" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(D32,I32)</f>
         <v>GW_824011</v>
       </c>
+      <c r="K32" t="s">
+        <v>108</v>
+      </c>
       <c r="L32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="M32" t="s">
+        <v>133</v>
+      </c>
+      <c r="N32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>44</v>
       </c>
@@ -3523,35 +4090,43 @@
       <c r="C33" s="8">
         <v>32.463999999999999</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8" t="s">
-        <v>32</v>
+      <c r="D33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="8">
+        <v>8</v>
       </c>
       <c r="F33" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G33" s="8">
-        <v>2</v>
-      </c>
-      <c r="H33" s="8">
-        <v>4</v>
-      </c>
-      <c r="I33" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>84</v>
       </c>
+      <c r="I33" s="8" t="str">
+        <f>CONCATENATE(E33,F33,G33,H33)</f>
+        <v>824012</v>
+      </c>
       <c r="J33" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>824012</v>
-      </c>
-      <c r="K33" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(D33,I33)</f>
         <v>GW_824012</v>
       </c>
+      <c r="K33" t="s">
+        <v>108</v>
+      </c>
       <c r="L33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="M33" t="s">
+        <v>128</v>
+      </c>
+      <c r="N33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>45</v>
       </c>
@@ -3561,35 +4136,43 @@
       <c r="C34" s="8">
         <v>33.712000000000003</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8" t="s">
-        <v>32</v>
+      <c r="D34" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="8">
+        <v>8</v>
       </c>
       <c r="F34" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G34" s="8">
-        <v>2</v>
-      </c>
-      <c r="H34" s="8">
-        <v>4</v>
-      </c>
-      <c r="I34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>85</v>
       </c>
+      <c r="I34" s="8" t="str">
+        <f>CONCATENATE(E34,F34,G34,H34)</f>
+        <v>824013</v>
+      </c>
       <c r="J34" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>824013</v>
-      </c>
-      <c r="K34" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(D34,I34)</f>
         <v>GW_824013</v>
       </c>
+      <c r="K34" t="s">
+        <v>108</v>
+      </c>
       <c r="L34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="M34" t="s">
+        <v>134</v>
+      </c>
+      <c r="N34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>46</v>
       </c>
@@ -3599,35 +4182,43 @@
       <c r="C35" s="8">
         <v>33.473999999999997</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8" t="s">
-        <v>32</v>
+      <c r="D35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="8">
+        <v>8</v>
       </c>
       <c r="F35" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G35" s="8">
-        <v>2</v>
-      </c>
-      <c r="H35" s="8">
-        <v>4</v>
-      </c>
-      <c r="I35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>86</v>
       </c>
+      <c r="I35" s="8" t="str">
+        <f>CONCATENATE(E35,F35,G35,H35)</f>
+        <v>824014</v>
+      </c>
       <c r="J35" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>824014</v>
-      </c>
-      <c r="K35" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(D35,I35)</f>
         <v>GW_824014</v>
       </c>
+      <c r="K35" t="s">
+        <v>108</v>
+      </c>
       <c r="L35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="M35" t="s">
+        <v>135</v>
+      </c>
+      <c r="N35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>47</v>
       </c>
@@ -3637,35 +4228,43 @@
       <c r="C36" s="8">
         <v>33.615000000000002</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8" t="s">
-        <v>32</v>
+      <c r="D36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="8">
+        <v>8</v>
       </c>
       <c r="F36" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G36" s="8">
-        <v>2</v>
-      </c>
-      <c r="H36" s="8">
-        <v>4</v>
-      </c>
-      <c r="I36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>87</v>
       </c>
+      <c r="I36" s="8" t="str">
+        <f>CONCATENATE(E36,F36,G36,H36)</f>
+        <v>824015</v>
+      </c>
       <c r="J36" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>824015</v>
-      </c>
-      <c r="K36" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(D36,I36)</f>
         <v>GW_824015</v>
       </c>
+      <c r="K36" t="s">
+        <v>108</v>
+      </c>
       <c r="L36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="M36" t="s">
+        <v>128</v>
+      </c>
+      <c r="N36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>48</v>
       </c>
@@ -3675,35 +4274,43 @@
       <c r="C37" s="8">
         <v>32.712000000000003</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8" t="s">
-        <v>32</v>
+      <c r="D37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="8">
+        <v>8</v>
       </c>
       <c r="F37" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G37" s="8">
-        <v>3</v>
-      </c>
-      <c r="H37" s="8">
-        <v>4</v>
-      </c>
-      <c r="I37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="9" t="s">
         <v>73</v>
       </c>
+      <c r="I37" s="8" t="str">
+        <f>CONCATENATE(E37,F37,G37,H37)</f>
+        <v>834001</v>
+      </c>
       <c r="J37" s="8" t="str">
-        <f>CONCATENATE(F37,G37,H37,I37)</f>
-        <v>834001</v>
-      </c>
-      <c r="K37" s="8" t="str">
-        <f>CONCATENATE(E37,J37)</f>
+        <f>CONCATENATE(D37,I37)</f>
         <v>GW_834001</v>
       </c>
+      <c r="K37" t="s">
+        <v>113</v>
+      </c>
       <c r="L37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="M37" t="s">
+        <v>119</v>
+      </c>
+      <c r="N37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>49</v>
       </c>
@@ -3713,35 +4320,43 @@
       <c r="C38" s="8">
         <v>32.533338999999998</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8" t="s">
-        <v>32</v>
+      <c r="D38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="8">
+        <v>8</v>
       </c>
       <c r="F38" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G38" s="8">
-        <v>3</v>
-      </c>
-      <c r="H38" s="8">
-        <v>4</v>
-      </c>
-      <c r="I38" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>74</v>
       </c>
+      <c r="I38" s="8" t="str">
+        <f>CONCATENATE(E38,F38,G38,H38)</f>
+        <v>834002</v>
+      </c>
       <c r="J38" s="8" t="str">
-        <f t="shared" ref="J38:J41" si="4">CONCATENATE(F38,G38,H38,I38)</f>
-        <v>834002</v>
-      </c>
-      <c r="K38" s="8" t="str">
-        <f t="shared" ref="K38:K41" si="5">CONCATENATE(E38,J38)</f>
+        <f>CONCATENATE(D38,I38)</f>
         <v>GW_834002</v>
       </c>
+      <c r="K38" t="s">
+        <v>113</v>
+      </c>
       <c r="L38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="M38" t="s">
+        <v>136</v>
+      </c>
+      <c r="N38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>50</v>
       </c>
@@ -3751,35 +4366,43 @@
       <c r="C39" s="8">
         <v>31.77844</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8" t="s">
-        <v>32</v>
+      <c r="D39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="8">
+        <v>8</v>
       </c>
       <c r="F39" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G39" s="8">
-        <v>3</v>
-      </c>
-      <c r="H39" s="8">
-        <v>4</v>
-      </c>
-      <c r="I39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>75</v>
       </c>
+      <c r="I39" s="8" t="str">
+        <f>CONCATENATE(E39,F39,G39,H39)</f>
+        <v>834003</v>
+      </c>
       <c r="J39" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>834003</v>
-      </c>
-      <c r="K39" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(D39,I39)</f>
         <v>GW_834003</v>
       </c>
+      <c r="K39" t="s">
+        <v>113</v>
+      </c>
       <c r="L39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="M39" t="s">
+        <v>136</v>
+      </c>
+      <c r="N39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>51</v>
       </c>
@@ -3789,35 +4412,43 @@
       <c r="C40" s="8">
         <v>31.95814</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8" t="s">
-        <v>32</v>
+      <c r="D40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="8">
+        <v>8</v>
       </c>
       <c r="F40" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G40" s="8">
-        <v>3</v>
-      </c>
-      <c r="H40" s="8">
-        <v>4</v>
-      </c>
-      <c r="I40" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>76</v>
       </c>
+      <c r="I40" s="8" t="str">
+        <f>CONCATENATE(E40,F40,G40,H40)</f>
+        <v>834004</v>
+      </c>
       <c r="J40" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>834004</v>
-      </c>
-      <c r="K40" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(D40,I40)</f>
         <v>GW_834004</v>
       </c>
+      <c r="K40" t="s">
+        <v>113</v>
+      </c>
       <c r="L40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="M40" t="s">
+        <v>139</v>
+      </c>
+      <c r="N40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>52</v>
       </c>
@@ -3827,800 +4458,1479 @@
       <c r="C41" s="8">
         <v>32.529170000000001</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8" t="s">
-        <v>32</v>
+      <c r="D41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="8">
+        <v>8</v>
       </c>
       <c r="F41" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G41" s="8">
-        <v>3</v>
-      </c>
-      <c r="H41" s="8">
-        <v>4</v>
-      </c>
-      <c r="I41" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="I41" s="8" t="str">
+        <f>CONCATENATE(E41,F41,G41,H41)</f>
+        <v>834005</v>
+      </c>
       <c r="J41" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>834005</v>
-      </c>
-      <c r="K41" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(D41,I41)</f>
         <v>GW_834005</v>
       </c>
+      <c r="K41" t="s">
+        <v>113</v>
+      </c>
       <c r="L41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="M41" t="s">
+        <v>159</v>
+      </c>
+      <c r="N41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="8">
         <v>0.12083000000000001</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="8">
         <v>30.488600000000002</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="10">
-        <v>8</v>
-      </c>
-      <c r="G42" s="10">
-        <v>4</v>
-      </c>
-      <c r="H42" s="10">
-        <v>4</v>
-      </c>
-      <c r="I42" s="11" t="s">
+      <c r="D42" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="8">
+        <v>8</v>
+      </c>
+      <c r="F42" s="8">
+        <v>4</v>
+      </c>
+      <c r="G42" s="8">
+        <v>4</v>
+      </c>
+      <c r="H42" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J42" s="10" t="str">
-        <f>CONCATENATE(F42,G42,H42,I42)</f>
+      <c r="I42" s="8" t="str">
+        <f>CONCATENATE(E42,F42,G42,H42)</f>
         <v>844001</v>
       </c>
-      <c r="K42" s="10" t="str">
-        <f>CONCATENATE(E42,J42)</f>
+      <c r="J42" s="8" t="str">
+        <f>CONCATENATE(D42,I42)</f>
         <v>GW_844001</v>
       </c>
+      <c r="K42" t="s">
+        <v>109</v>
+      </c>
       <c r="L42" t="s">
+        <v>162</v>
+      </c>
+      <c r="M42" t="s">
+        <v>157</v>
+      </c>
+      <c r="N42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="8">
+        <v>-0.13164999999999999</v>
+      </c>
+      <c r="C43" s="8">
+        <v>30.490819999999999</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="8">
+        <v>8</v>
+      </c>
+      <c r="F43" s="8">
+        <v>4</v>
+      </c>
+      <c r="G43" s="8">
+        <v>4</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43" s="8" t="str">
+        <f>CONCATENATE(E43,F43,G43,H43)</f>
+        <v>844002</v>
+      </c>
+      <c r="J43" s="8" t="str">
+        <f>CONCATENATE(D43,I43)</f>
+        <v>GW_844002</v>
+      </c>
+      <c r="K43" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="10">
-        <v>-0.13164999999999999</v>
-      </c>
-      <c r="C43" s="10">
-        <v>30.490819999999999</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" s="10">
-        <v>8</v>
-      </c>
-      <c r="G43" s="10">
-        <v>4</v>
-      </c>
-      <c r="H43" s="10">
-        <v>4</v>
-      </c>
-      <c r="I43" s="11" t="s">
+      <c r="L43" t="s">
+        <v>162</v>
+      </c>
+      <c r="M43" t="s">
+        <v>131</v>
+      </c>
+      <c r="N43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="8">
+        <v>0.164025</v>
+      </c>
+      <c r="C44" s="8">
+        <v>30.55517</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="8">
+        <v>8</v>
+      </c>
+      <c r="F44" s="8">
+        <v>4</v>
+      </c>
+      <c r="G44" s="8">
+        <v>4</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I44" s="8" t="str">
+        <f>CONCATENATE(E44,F44,G44,H44)</f>
+        <v>844003</v>
+      </c>
+      <c r="J44" s="8" t="str">
+        <f>CONCATENATE(D44,I44)</f>
+        <v>GW_844003</v>
+      </c>
+      <c r="K44" t="s">
+        <v>109</v>
+      </c>
+      <c r="L44" t="s">
+        <v>162</v>
+      </c>
+      <c r="M44" t="s">
+        <v>157</v>
+      </c>
+      <c r="N44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="8">
+        <v>1.7160000000000002E-2</v>
+      </c>
+      <c r="C45" s="8">
+        <v>30.078520000000001</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="8">
+        <v>8</v>
+      </c>
+      <c r="F45" s="8">
+        <v>4</v>
+      </c>
+      <c r="G45" s="8">
+        <v>4</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I45" s="8" t="str">
+        <f>CONCATENATE(E45,F45,G45,H45)</f>
+        <v>844004</v>
+      </c>
+      <c r="J45" s="8" t="str">
+        <f>CONCATENATE(D45,I45)</f>
+        <v>GW_844004</v>
+      </c>
+      <c r="K45" t="s">
+        <v>109</v>
+      </c>
+      <c r="L45" t="s">
+        <v>162</v>
+      </c>
+      <c r="M45" t="s">
+        <v>141</v>
+      </c>
+      <c r="N45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="8">
+        <v>-0.78259000000000001</v>
+      </c>
+      <c r="C46" s="8">
+        <v>29.931180000000001</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="8">
+        <v>8</v>
+      </c>
+      <c r="F46" s="8">
+        <v>4</v>
+      </c>
+      <c r="G46" s="8">
+        <v>4</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I46" s="8" t="str">
+        <f>CONCATENATE(E46,F46,G46,H46)</f>
+        <v>844005</v>
+      </c>
+      <c r="J46" s="8" t="str">
+        <f>CONCATENATE(D46,I46)</f>
+        <v>GW_844005</v>
+      </c>
+      <c r="K46" t="s">
+        <v>109</v>
+      </c>
+      <c r="L46" t="s">
+        <v>162</v>
+      </c>
+      <c r="M46" t="s">
+        <v>144</v>
+      </c>
+      <c r="N46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="8">
+        <v>-0.78634999999999999</v>
+      </c>
+      <c r="C47" s="8">
+        <v>29.93207</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="8">
+        <v>8</v>
+      </c>
+      <c r="F47" s="8">
+        <v>4</v>
+      </c>
+      <c r="G47" s="8">
+        <v>4</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I47" s="8" t="str">
+        <f>CONCATENATE(E47,F47,G47,H47)</f>
+        <v>844005</v>
+      </c>
+      <c r="J47" s="8" t="str">
+        <f>CONCATENATE(D47,I47)</f>
+        <v>GW_844005</v>
+      </c>
+      <c r="K47" t="s">
+        <v>109</v>
+      </c>
+      <c r="L47" t="s">
+        <v>162</v>
+      </c>
+      <c r="M47" t="s">
+        <v>142</v>
+      </c>
+      <c r="N47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="8">
+        <v>1.4322299999999999</v>
+      </c>
+      <c r="C48" s="8">
+        <v>31.362110000000001</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="8">
+        <v>8</v>
+      </c>
+      <c r="F48" s="8">
+        <v>5</v>
+      </c>
+      <c r="G48" s="8">
+        <v>4</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f>CONCATENATE(E48,F48,G48,H48)</f>
+        <v>854001</v>
+      </c>
+      <c r="J48" s="8" t="str">
+        <f>CONCATENATE(D48,I48)</f>
+        <v>GW_854001</v>
+      </c>
+      <c r="K48" t="s">
+        <v>110</v>
+      </c>
+      <c r="L48" t="s">
+        <v>162</v>
+      </c>
+      <c r="M48" t="s">
+        <v>141</v>
+      </c>
+      <c r="N48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="8">
+        <v>1.43</v>
+      </c>
+      <c r="C49" s="8">
+        <v>31.34</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="8">
+        <v>8</v>
+      </c>
+      <c r="F49" s="8">
+        <v>5</v>
+      </c>
+      <c r="G49" s="8">
+        <v>4</v>
+      </c>
+      <c r="H49" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J43" s="10" t="str">
-        <f t="shared" ref="J43:J46" si="6">CONCATENATE(F43,G43,H43,I43)</f>
-        <v>844002</v>
-      </c>
-      <c r="K43" s="10" t="str">
-        <f t="shared" ref="K43:K46" si="7">CONCATENATE(E43,J43)</f>
-        <v>GW_844002</v>
-      </c>
-      <c r="L43" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="10">
-        <v>0.164025</v>
-      </c>
-      <c r="C44" s="10">
-        <v>30.55517</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" s="10">
-        <v>8</v>
-      </c>
-      <c r="G44" s="10">
-        <v>4</v>
-      </c>
-      <c r="H44" s="10">
-        <v>4</v>
-      </c>
-      <c r="I44" s="11" t="s">
+      <c r="I49" s="8" t="str">
+        <f>CONCATENATE(E49,F49,G49,H49)</f>
+        <v>854002</v>
+      </c>
+      <c r="J49" s="8" t="str">
+        <f>CONCATENATE(D49,I49)</f>
+        <v>GW_854002</v>
+      </c>
+      <c r="K49" t="s">
+        <v>110</v>
+      </c>
+      <c r="L49" t="s">
+        <v>162</v>
+      </c>
+      <c r="M49" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="8">
+        <v>0.48348999999999998</v>
+      </c>
+      <c r="C50" s="8">
+        <v>31.053319999999999</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="8">
+        <v>8</v>
+      </c>
+      <c r="F50" s="8">
+        <v>5</v>
+      </c>
+      <c r="G50" s="8">
+        <v>4</v>
+      </c>
+      <c r="H50" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="J44" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>844003</v>
-      </c>
-      <c r="K44" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>GW_844003</v>
-      </c>
-      <c r="L44" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="10">
-        <v>1.7160000000000002E-2</v>
-      </c>
-      <c r="C45" s="10">
-        <v>30.078520000000001</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="10">
-        <v>8</v>
-      </c>
-      <c r="G45" s="10">
-        <v>4</v>
-      </c>
-      <c r="H45" s="10">
-        <v>4</v>
-      </c>
-      <c r="I45" s="11" t="s">
+      <c r="I50" s="8" t="str">
+        <f>CONCATENATE(E50,F50,G50,H50)</f>
+        <v>854003</v>
+      </c>
+      <c r="J50" s="8" t="str">
+        <f>CONCATENATE(D50,I50)</f>
+        <v>GW_854003</v>
+      </c>
+      <c r="K50" t="s">
+        <v>110</v>
+      </c>
+      <c r="L50" t="s">
+        <v>162</v>
+      </c>
+      <c r="M50" t="s">
+        <v>145</v>
+      </c>
+      <c r="N50" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="8">
+        <v>1.0483100000000001</v>
+      </c>
+      <c r="C51" s="8">
+        <v>30.26604</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="8">
+        <v>8</v>
+      </c>
+      <c r="F51" s="8">
+        <v>5</v>
+      </c>
+      <c r="G51" s="8">
+        <v>4</v>
+      </c>
+      <c r="H51" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="J45" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>844004</v>
-      </c>
-      <c r="K45" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>GW_844004</v>
-      </c>
-      <c r="L45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="10">
-        <v>-0.78634999999999999</v>
-      </c>
-      <c r="C46" s="10">
-        <v>29.93207</v>
-      </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" s="10">
-        <v>8</v>
-      </c>
-      <c r="G46" s="10">
-        <v>4</v>
-      </c>
-      <c r="H46" s="10">
-        <v>4</v>
-      </c>
-      <c r="I46" s="11" t="s">
+      <c r="I51" s="8" t="str">
+        <f>CONCATENATE(E51,F51,G51,H51)</f>
+        <v>854004</v>
+      </c>
+      <c r="J51" s="8" t="str">
+        <f>CONCATENATE(D51,I51)</f>
+        <v>GW_854004</v>
+      </c>
+      <c r="K51" t="s">
+        <v>110</v>
+      </c>
+      <c r="L51" t="s">
+        <v>162</v>
+      </c>
+      <c r="M51" t="s">
+        <v>136</v>
+      </c>
+      <c r="N51" t="s">
+        <v>138</v>
+      </c>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="8">
+        <v>2.5956199999999998</v>
+      </c>
+      <c r="C52" s="8">
+        <v>33.722110000000001</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="8">
+        <v>8</v>
+      </c>
+      <c r="F52" s="8">
+        <v>6</v>
+      </c>
+      <c r="G52" s="8">
+        <v>4</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I52" s="8" t="str">
+        <f>CONCATENATE(E52,F52,G52,H52)</f>
+        <v>864001</v>
+      </c>
+      <c r="J52" s="8" t="str">
+        <f>CONCATENATE(D52,I52)</f>
+        <v>GW_864001</v>
+      </c>
+      <c r="K52" t="s">
+        <v>111</v>
+      </c>
+      <c r="L52" t="s">
+        <v>161</v>
+      </c>
+      <c r="M52" t="s">
+        <v>131</v>
+      </c>
+      <c r="N52" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="8">
+        <v>2.5918800000000002</v>
+      </c>
+      <c r="C53" s="8">
+        <v>33.661050000000003</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="8">
+        <v>8</v>
+      </c>
+      <c r="F53" s="8">
+        <v>6</v>
+      </c>
+      <c r="G53" s="8">
+        <v>4</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I53" s="8" t="str">
+        <f>CONCATENATE(E53,F53,G53,H53)</f>
+        <v>864002</v>
+      </c>
+      <c r="J53" s="8" t="str">
+        <f>CONCATENATE(D53,I53)</f>
+        <v>GW_864002</v>
+      </c>
+      <c r="K53" t="s">
+        <v>111</v>
+      </c>
+      <c r="L53" t="s">
+        <v>161</v>
+      </c>
+      <c r="M53" t="s">
+        <v>131</v>
+      </c>
+      <c r="N53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="8">
+        <v>2.26471</v>
+      </c>
+      <c r="C54" s="8">
+        <v>33.233409999999999</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="8">
+        <v>8</v>
+      </c>
+      <c r="F54" s="8">
+        <v>6</v>
+      </c>
+      <c r="G54" s="8">
+        <v>4</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I54" s="8" t="str">
+        <f>CONCATENATE(E54,F54,G54,H54)</f>
+        <v>864003</v>
+      </c>
+      <c r="J54" s="8" t="str">
+        <f>CONCATENATE(D54,I54)</f>
+        <v>GW_864003</v>
+      </c>
+      <c r="K54" t="s">
+        <v>111</v>
+      </c>
+      <c r="L54" t="s">
+        <v>161</v>
+      </c>
+      <c r="M54" t="s">
+        <v>125</v>
+      </c>
+      <c r="N54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="8">
+        <v>3.29833</v>
+      </c>
+      <c r="C55" s="8">
+        <v>32.882919999999999</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="8">
+        <v>8</v>
+      </c>
+      <c r="F55" s="8">
+        <v>6</v>
+      </c>
+      <c r="G55" s="8">
+        <v>4</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I55" s="8" t="str">
+        <f>CONCATENATE(E55,F55,G55,H55)</f>
+        <v>864004</v>
+      </c>
+      <c r="J55" s="8" t="str">
+        <f>CONCATENATE(D55,I55)</f>
+        <v>GW_864004</v>
+      </c>
+      <c r="K55" t="s">
+        <v>111</v>
+      </c>
+      <c r="L55" t="s">
+        <v>161</v>
+      </c>
+      <c r="M55" t="s">
+        <v>131</v>
+      </c>
+      <c r="N55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="8">
+        <v>2.4059499999999998</v>
+      </c>
+      <c r="C56" s="8">
+        <v>33.233409999999999</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="8">
+        <v>8</v>
+      </c>
+      <c r="F56" s="8">
+        <v>6</v>
+      </c>
+      <c r="G56" s="8">
+        <v>4</v>
+      </c>
+      <c r="H56" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J46" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>844005</v>
-      </c>
-      <c r="K46" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>GW_844005</v>
-      </c>
-      <c r="L46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="8">
-        <v>1.4322299999999999</v>
-      </c>
-      <c r="C47" s="8">
-        <v>31.362110000000001</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47" s="8">
-        <v>8</v>
-      </c>
-      <c r="G47" s="8">
-        <v>5</v>
-      </c>
-      <c r="H47" s="8">
-        <v>4</v>
-      </c>
-      <c r="I47" s="9" t="s">
+      <c r="I56" s="8" t="str">
+        <f>CONCATENATE(E56,F56,G56,H56)</f>
+        <v>864005</v>
+      </c>
+      <c r="J56" s="8" t="str">
+        <f>CONCATENATE(D56,I56)</f>
+        <v>GW_864005</v>
+      </c>
+      <c r="K56" t="s">
+        <v>111</v>
+      </c>
+      <c r="L56" t="s">
+        <v>161</v>
+      </c>
+      <c r="M56" t="s">
+        <v>125</v>
+      </c>
+      <c r="N56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="8">
+        <v>2.8696100000000002</v>
+      </c>
+      <c r="C57" s="8">
+        <v>33.087229999999998</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="8">
+        <v>8</v>
+      </c>
+      <c r="F57" s="8">
+        <v>6</v>
+      </c>
+      <c r="G57" s="8">
+        <v>4</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I57" s="8" t="str">
+        <f>CONCATENATE(E57,F57,G57,H57)</f>
+        <v>864006</v>
+      </c>
+      <c r="J57" s="8" t="str">
+        <f>CONCATENATE(D57,I57)</f>
+        <v>GW_864006</v>
+      </c>
+      <c r="K57" t="s">
+        <v>111</v>
+      </c>
+      <c r="L57" t="s">
+        <v>161</v>
+      </c>
+      <c r="M57" t="s">
+        <v>131</v>
+      </c>
+      <c r="N57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="8">
+        <v>3.2607699999999999</v>
+      </c>
+      <c r="C58" s="8">
+        <v>32.12032</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="8">
+        <v>8</v>
+      </c>
+      <c r="F58" s="8">
+        <v>7</v>
+      </c>
+      <c r="G58" s="8">
+        <v>4</v>
+      </c>
+      <c r="H58" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="J47" s="8" t="str">
-        <f>CONCATENATE(F47,G47,H47,I47)</f>
-        <v>854001</v>
-      </c>
-      <c r="K47" s="8" t="str">
-        <f>CONCATENATE(E47,J47)</f>
-        <v>GW_854001</v>
-      </c>
-      <c r="L47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="8">
-        <v>1.43</v>
-      </c>
-      <c r="C48" s="8">
-        <v>31.34</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" s="8">
-        <v>8</v>
-      </c>
-      <c r="G48" s="8">
-        <v>5</v>
-      </c>
-      <c r="H48" s="8">
-        <v>4</v>
-      </c>
-      <c r="I48" s="9" t="s">
+      <c r="I58" s="8" t="str">
+        <f>CONCATENATE(E58,F58,G58,H58)</f>
+        <v>874001</v>
+      </c>
+      <c r="J58" s="8" t="str">
+        <f>CONCATENATE(D58,E58,F58,G58,H58)</f>
+        <v>GW_874001</v>
+      </c>
+      <c r="K58" t="s">
+        <v>112</v>
+      </c>
+      <c r="L58" t="s">
+        <v>161</v>
+      </c>
+      <c r="M58" t="s">
+        <v>131</v>
+      </c>
+      <c r="N58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="8">
+        <v>2.7830699999999999</v>
+      </c>
+      <c r="C59" s="8">
+        <v>32.293880000000001</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="8">
+        <v>8</v>
+      </c>
+      <c r="F59" s="8">
+        <v>7</v>
+      </c>
+      <c r="G59" s="8">
+        <v>4</v>
+      </c>
+      <c r="H59" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="J48" s="8" t="str">
-        <f t="shared" ref="J48:J50" si="8">CONCATENATE(F48,G48,H48,I48)</f>
-        <v>854002</v>
-      </c>
-      <c r="K48" s="8" t="str">
-        <f t="shared" ref="K48:K50" si="9">CONCATENATE(E48,J48)</f>
-        <v>GW_854002</v>
-      </c>
-      <c r="L48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="8">
-        <v>0.48348999999999998</v>
-      </c>
-      <c r="C49" s="8">
-        <v>31.053319999999999</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="8">
-        <v>8</v>
-      </c>
-      <c r="G49" s="8">
-        <v>5</v>
-      </c>
-      <c r="H49" s="8">
-        <v>4</v>
-      </c>
-      <c r="I49" s="9" t="s">
+      <c r="I59" s="8" t="str">
+        <f>_xlfn.CONCAT(E59,F59,G59,H59)</f>
+        <v>874002</v>
+      </c>
+      <c r="J59" s="8" t="str">
+        <f>CONCATENATE(D59,E59,F59,G59,H59)</f>
+        <v>GW_874002</v>
+      </c>
+      <c r="K59" t="s">
+        <v>112</v>
+      </c>
+      <c r="L59" t="s">
+        <v>161</v>
+      </c>
+      <c r="M59" t="s">
+        <v>146</v>
+      </c>
+      <c r="N59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="8">
+        <v>3.5627900000000001</v>
+      </c>
+      <c r="C60" s="8">
+        <v>31.81129</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="8">
+        <v>8</v>
+      </c>
+      <c r="F60" s="8">
+        <v>7</v>
+      </c>
+      <c r="G60" s="8">
+        <v>4</v>
+      </c>
+      <c r="H60" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="J49" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>854003</v>
-      </c>
-      <c r="K49" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>GW_854003</v>
-      </c>
-      <c r="L49" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="8">
-        <v>1.0483100000000001</v>
-      </c>
-      <c r="C50" s="8">
-        <v>30.26604</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="8">
-        <v>8</v>
-      </c>
-      <c r="G50" s="8">
-        <v>5</v>
-      </c>
-      <c r="H50" s="8">
-        <v>4</v>
-      </c>
-      <c r="I50" s="9" t="s">
+      <c r="I60" s="8" t="str">
+        <f>_xlfn.CONCAT(E60,F60,G60,H60)</f>
+        <v>874003</v>
+      </c>
+      <c r="J60" s="8" t="str">
+        <f>CONCATENATE(D60,E60,F60,G60,H60)</f>
+        <v>GW_874003</v>
+      </c>
+      <c r="K60" t="s">
+        <v>112</v>
+      </c>
+      <c r="L60" t="s">
+        <v>161</v>
+      </c>
+      <c r="M60" t="s">
+        <v>148</v>
+      </c>
+      <c r="N60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="8">
+        <v>3.2820999999999998</v>
+      </c>
+      <c r="C61" s="8">
+        <v>30.95232</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="8">
+        <v>8</v>
+      </c>
+      <c r="F61" s="8">
+        <v>7</v>
+      </c>
+      <c r="G61" s="8">
+        <v>4</v>
+      </c>
+      <c r="H61" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="J50" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>854004</v>
-      </c>
-      <c r="K50" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>GW_854004</v>
-      </c>
-      <c r="L50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="10">
-        <v>2.5956199999999998</v>
-      </c>
-      <c r="C51" s="10">
-        <v>33.722110000000001</v>
-      </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="10">
-        <v>8</v>
-      </c>
-      <c r="G51" s="10">
+      <c r="I61" s="8" t="str">
+        <f>_xlfn.CONCAT(E61,F61,G61,H61)</f>
+        <v>874004</v>
+      </c>
+      <c r="J61" s="8" t="str">
+        <f>CONCATENATE(D61,E61,F61,G61,H61)</f>
+        <v>GW_874004</v>
+      </c>
+      <c r="K61" t="s">
+        <v>112</v>
+      </c>
+      <c r="L61" t="s">
+        <v>161</v>
+      </c>
+      <c r="M61" t="s">
+        <v>149</v>
+      </c>
+      <c r="N61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="8">
+        <v>2.45627</v>
+      </c>
+      <c r="C62" s="8">
+        <v>31.481929999999998</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="8">
+        <v>8</v>
+      </c>
+      <c r="F62" s="8">
+        <v>7</v>
+      </c>
+      <c r="G62" s="8">
+        <v>4</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="I62" s="8" t="str">
+        <f>_xlfn.CONCAT(E62,F62,G62,H62)</f>
+        <v>874005</v>
+      </c>
+      <c r="J62" s="8" t="str">
+        <f>CONCATENATE(D62,E62,F62,G62,H62)</f>
+        <v>GW_874005</v>
+      </c>
+      <c r="K62" t="s">
+        <v>112</v>
+      </c>
+      <c r="L62" t="s">
+        <v>161</v>
+      </c>
+      <c r="M62" t="s">
+        <v>131</v>
+      </c>
+      <c r="N62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="8">
+        <v>5.1020000000000003E-2</v>
+      </c>
+      <c r="C63" s="8">
+        <v>32.472079999999998</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" s="8">
+        <v>8</v>
+      </c>
+      <c r="F63" s="8">
+        <v>1</v>
+      </c>
+      <c r="G63" s="8">
         <v>6</v>
       </c>
-      <c r="H51" s="10">
-        <v>4</v>
-      </c>
-      <c r="I51" s="11" t="s">
+      <c r="H63" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J51" s="10" t="str">
-        <f>CONCATENATE(F51,G51,H51,I51)</f>
-        <v>864001</v>
-      </c>
-      <c r="K51" s="10" t="str">
-        <f>CONCATENATE(E51,J51)</f>
-        <v>GW_864001</v>
-      </c>
-      <c r="L51" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="10">
-        <v>2.5918800000000002</v>
-      </c>
-      <c r="C52" s="10">
-        <v>33.661050000000003</v>
-      </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="10">
-        <v>8</v>
-      </c>
-      <c r="G52" s="10">
+      <c r="I63" s="8" t="str">
+        <f>CONCATENATE(E63,F63,G63,H63)</f>
+        <v>816001</v>
+      </c>
+      <c r="J63" s="8" t="str">
+        <f>CONCATENATE(D63,I63)</f>
+        <v>IS_816001</v>
+      </c>
+      <c r="K63" t="s">
+        <v>107</v>
+      </c>
+      <c r="L63" t="s">
+        <v>164</v>
+      </c>
+      <c r="M63" t="s">
+        <v>152</v>
+      </c>
+      <c r="N63" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>155</v>
+      </c>
+      <c r="B64">
+        <v>-0.33444400000000002</v>
+      </c>
+      <c r="C64">
+        <v>31.762219999999999</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="8">
+        <v>8</v>
+      </c>
+      <c r="F64" s="8">
+        <v>1</v>
+      </c>
+      <c r="G64" s="8">
         <v>6</v>
       </c>
-      <c r="H52" s="10">
-        <v>4</v>
-      </c>
-      <c r="I52" s="11" t="s">
+      <c r="H64" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J52" s="10" t="str">
-        <f t="shared" ref="J52:J56" si="10">CONCATENATE(F52,G52,H52,I52)</f>
-        <v>864002</v>
-      </c>
-      <c r="K52" s="10" t="str">
-        <f t="shared" ref="K52:K56" si="11">CONCATENATE(E52,J52)</f>
-        <v>GW_864002</v>
-      </c>
-      <c r="L52" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" s="10">
-        <v>2.26471</v>
-      </c>
-      <c r="C53" s="10">
-        <v>33.233409999999999</v>
-      </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" s="10">
-        <v>8</v>
-      </c>
-      <c r="G53" s="10">
+      <c r="I64" s="8" t="str">
+        <f>CONCATENATE(E64,F64,G64,H64)</f>
+        <v>816002</v>
+      </c>
+      <c r="J64" s="8" t="str">
+        <f>CONCATENATE(D64,I64)</f>
+        <v>IS_816002</v>
+      </c>
+      <c r="K64" t="s">
+        <v>107</v>
+      </c>
+      <c r="L64" t="s">
+        <v>164</v>
+      </c>
+      <c r="M64" t="s">
+        <v>156</v>
+      </c>
+      <c r="N64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65">
+        <v>1.6142620000000001</v>
+      </c>
+      <c r="C65">
+        <v>33.273204999999997</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="8">
+        <v>8</v>
+      </c>
+      <c r="F65" s="8">
+        <v>2</v>
+      </c>
+      <c r="G65" s="8">
         <v>6</v>
       </c>
-      <c r="H53" s="10">
-        <v>4</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="J53" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>864003</v>
-      </c>
-      <c r="K53" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>GW_864003</v>
-      </c>
-      <c r="L53" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="10">
-        <v>3.29833</v>
-      </c>
-      <c r="C54" s="10">
-        <v>32.882919999999999</v>
-      </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="10">
-        <v>8</v>
-      </c>
-      <c r="G54" s="10">
+      <c r="H65" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I65" s="8" t="str">
+        <f>CONCATENATE(E65,F65,G65,H65)</f>
+        <v>826001</v>
+      </c>
+      <c r="J65" s="8" t="str">
+        <f>CONCATENATE(D65,I65)</f>
+        <v>IS_826001</v>
+      </c>
+      <c r="K65" t="s">
+        <v>108</v>
+      </c>
+      <c r="L65" t="s">
+        <v>163</v>
+      </c>
+      <c r="M65" t="s">
+        <v>152</v>
+      </c>
+      <c r="N65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="8">
+        <v>0.44790000000000002</v>
+      </c>
+      <c r="C66" s="8">
+        <v>33.202599999999997</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" s="8">
+        <v>8</v>
+      </c>
+      <c r="F66" s="8">
+        <v>2</v>
+      </c>
+      <c r="G66" s="8">
         <v>6</v>
       </c>
-      <c r="H54" s="10">
-        <v>4</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J54" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>864004</v>
-      </c>
-      <c r="K54" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>GW_864004</v>
-      </c>
-      <c r="L54" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="10">
-        <v>2.4059499999999998</v>
-      </c>
-      <c r="C55" s="10">
-        <v>33.233409999999999</v>
-      </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" s="10">
-        <v>8</v>
-      </c>
-      <c r="G55" s="10">
+      <c r="H66" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I66" s="8" t="str">
+        <f>CONCATENATE(E66,F66,G66,H66)</f>
+        <v>826002</v>
+      </c>
+      <c r="J66" s="8" t="str">
+        <f>CONCATENATE(D66,I66)</f>
+        <v>IS_826002</v>
+      </c>
+      <c r="K66" t="s">
+        <v>108</v>
+      </c>
+      <c r="L66" t="s">
+        <v>163</v>
+      </c>
+      <c r="M66" t="s">
+        <v>152</v>
+      </c>
+      <c r="N66" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AF1" xr:uid="{2B41EBA2-FF4B-FE43-8FB5-5D310F774F2A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF66">
+      <sortCondition ref="J1:J66"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="H2:H31 H32:H57 H58:H66" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2A7E46-5BB4-5A40-B25F-01696AB57DA0}">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="66.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="35" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8">
+        <v>5.1020000000000003E-2</v>
+      </c>
+      <c r="C2" s="8">
+        <v>32.472079999999998</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="8">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
         <v>6</v>
       </c>
-      <c r="H55" s="10">
-        <v>4</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J55" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>864005</v>
-      </c>
-      <c r="K55" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>GW_864005</v>
-      </c>
-      <c r="L55" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="10">
-        <v>2.8696100000000002</v>
-      </c>
-      <c r="C56" s="10">
-        <v>33.087229999999998</v>
-      </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F56" s="10">
-        <v>8</v>
-      </c>
-      <c r="G56" s="10">
+      <c r="H2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="8" t="str">
+        <f>CONCATENATE(E2,F2,G2,H2)</f>
+        <v>816001</v>
+      </c>
+      <c r="J2" s="8" t="str">
+        <f>CONCATENATE(D2,I2)</f>
+        <v>IS_816001</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="8">
+        <v>-0.33444400000000002</v>
+      </c>
+      <c r="C3" s="8">
+        <v>31.762219999999999</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="8">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
         <v>6</v>
       </c>
-      <c r="H56" s="10">
-        <v>4</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J56" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>864006</v>
-      </c>
-      <c r="K56" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>GW_864006</v>
-      </c>
-      <c r="L56" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="8">
-        <v>3.2607699999999999</v>
-      </c>
-      <c r="C57" s="8">
-        <v>32.12032</v>
-      </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F57" s="8">
-        <v>8</v>
-      </c>
-      <c r="G57" s="8">
-        <v>7</v>
-      </c>
-      <c r="H57" s="8">
-        <v>4</v>
-      </c>
-      <c r="I57" s="20" t="s">
+      <c r="H3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="8" t="str">
+        <f>CONCATENATE(E3,F3,G3,H3)</f>
+        <v>816002</v>
+      </c>
+      <c r="J3" s="8" t="str">
+        <f>CONCATENATE(D3,I3)</f>
+        <v>IS_816002</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="N3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1.6142620000000001</v>
+      </c>
+      <c r="C4" s="8">
+        <v>33.273204999999997</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="8">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8">
+        <v>6</v>
+      </c>
+      <c r="H4" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="J57" s="8" t="str">
-        <f>CONCATENATE(F57,G57,H57,I57)</f>
-        <v>874001</v>
-      </c>
-      <c r="K57" s="8" t="str">
-        <f>CONCATENATE(E57,F57,G57,H57,I57)</f>
-        <v>GW_874001</v>
-      </c>
-      <c r="L57" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" s="8">
-        <v>2.7830699999999999</v>
-      </c>
-      <c r="C58" s="8">
-        <v>32.293880000000001</v>
-      </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F58" s="8">
-        <v>8</v>
-      </c>
-      <c r="G58" s="8">
-        <v>7</v>
-      </c>
-      <c r="H58" s="8">
-        <v>4</v>
-      </c>
-      <c r="I58" s="20" t="s">
+      <c r="I4" s="8" t="str">
+        <f>CONCATENATE(E4,F4,G4,H4)</f>
+        <v>826001</v>
+      </c>
+      <c r="J4" s="8" t="str">
+        <f>CONCATENATE(D4,I4)</f>
+        <v>IS_826001</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="N4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.44790000000000002</v>
+      </c>
+      <c r="C5" s="8">
+        <v>33.202599999999997</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="8">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8">
+        <v>6</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J58" s="8" t="str">
-        <f t="shared" ref="J58:J61" si="12">_xlfn.CONCAT(F58,G58,H58,I58)</f>
-        <v>874002</v>
-      </c>
-      <c r="K58" s="8" t="str">
-        <f t="shared" ref="K58:K61" si="13">CONCATENATE(E58,F58,G58,H58,I58)</f>
-        <v>GW_874002</v>
-      </c>
-      <c r="L58" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="8">
-        <v>3.5627900000000001</v>
-      </c>
-      <c r="C59" s="8">
-        <v>31.81129</v>
-      </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" s="8">
-        <v>8</v>
-      </c>
-      <c r="G59" s="8">
-        <v>7</v>
-      </c>
-      <c r="H59" s="8">
-        <v>4</v>
-      </c>
-      <c r="I59" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="J59" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>874003</v>
-      </c>
-      <c r="K59" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>GW_874003</v>
-      </c>
-      <c r="L59" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60" s="8">
-        <v>3.2820999999999998</v>
-      </c>
-      <c r="C60" s="8">
-        <v>30.95232</v>
-      </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60" s="8">
-        <v>8</v>
-      </c>
-      <c r="G60" s="8">
-        <v>7</v>
-      </c>
-      <c r="H60" s="8">
-        <v>4</v>
-      </c>
-      <c r="I60" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="J60" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>874004</v>
-      </c>
-      <c r="K60" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>GW_874004</v>
-      </c>
-      <c r="L60" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="8">
-        <v>2.45627</v>
-      </c>
-      <c r="C61" s="8">
-        <v>31.481929999999998</v>
-      </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F61" s="8">
-        <v>8</v>
-      </c>
-      <c r="G61" s="8">
-        <v>7</v>
-      </c>
-      <c r="H61" s="8">
-        <v>4</v>
-      </c>
-      <c r="I61" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="J61" s="8" t="str">
-        <f t="shared" si="12"/>
-        <v>874005</v>
-      </c>
-      <c r="K61" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>GW_874005</v>
-      </c>
-      <c r="L61" t="s">
-        <v>112</v>
+      <c r="I5" s="8" t="str">
+        <f>CONCATENATE(E5,F5,G5,H5)</f>
+        <v>826002</v>
+      </c>
+      <c r="J5" s="8" t="str">
+        <f>CONCATENATE(D5,I5)</f>
+        <v>IS_826002</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="N5" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="I2:I3 I4:I61" numberStoredAsText="1"/>
+    <ignoredError sqref="H2:H5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -6534,11 +7844,11 @@
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.25">
